--- a/04_Practical_Projects/files/openpyxl_files/hello_world.xlsx
+++ b/04_Practical_Projects/files/openpyxl_files/hello_world.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="product_sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,6 +416,101 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Everyone</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>openpyxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>This</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>openpyxl</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -424,76 +519,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hello</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Welcome</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>openpyxl</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>This</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>openpyxl</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Library</t>
+          <t>This is product sheet and the A1 is Hello</t>
         </is>
       </c>
     </row>

--- a/04_Practical_Projects/files/openpyxl_files/hello_world.xlsx
+++ b/04_Practical_Projects/files/openpyxl_files/hello_world.xlsx
@@ -416,7 +416,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -511,7 +514,14 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
